--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -59,7 +59,7 @@
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),2.0-Limon (unidad),5.0-Crema (litros),4.0-Harina  (kg),</t>
+    <t>5.0-Huevos (unidad),5.0-Crema (litros),4.0-Harina  (kg),2.0-Limon (unidad),</t>
   </si>
   <si>
     <t>Cupcake</t>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -32,10 +32,10 @@
     <t>Torta</t>
   </si>
   <si>
-    <t>1.0-Huevos (unidad),3.0-Leche (litros),1.0-Vainilla (ml),2.0-Harina  (kg),</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>1.0-Huevos (unidad),3.0-Leche (litros),2.0-Harina  (kg),1.0-Vainilla (ml),</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Kuchen Manzana</t>
@@ -47,7 +47,7 @@
     <t>Queque</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),1.0-Vainilla (ml),5.0-Harina  (kg),</t>
+    <t>2.0-Huevos (unidad),5.0-Harina  (kg),1.0-Vainilla (ml),</t>
   </si>
   <si>
     <t>Tartaleta Durazno</t>
@@ -59,13 +59,13 @@
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),2.0-Limon (unidad),5.0-Crema (litros),4.0-Harina  (kg),</t>
+    <t>5.0-Huevos (unidad),5.0-Crema (litros),4.0-Harina  (kg),2.0-Limon (unidad),</t>
   </si>
   <si>
     <t>Cupcake</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),0.2-Leche (litros),0.1-Vainilla (ml),0.3-Harina  (kg),</t>
+    <t>2.0-Huevos (unidad),0.2-Leche (litros),0.3-Harina  (kg),0.1-Vainilla (ml),</t>
   </si>
 </sst>
 </file>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -32,7 +32,7 @@
     <t>Torta</t>
   </si>
   <si>
-    <t>1.0-Huevos (unidad),3.0-Leche (litros),1.0-Vainilla (ml),2.0-Harina  (kg),</t>
+    <t>2.0-Harina  (kg),1.0-Huevos (unidad),1.0-Vainilla (ml),3.0-Leche (litros),</t>
   </si>
   <si>
     <t>0</t>
@@ -41,31 +41,31 @@
     <t>Kuchen Manzana</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),2.0-Harina  (kg),</t>
+    <t>2.0-Harina  (kg),5.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Queque</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),1.0-Vainilla (ml),5.0-Harina  (kg),</t>
+    <t>5.0-Harina  (kg),2.0-Huevos (unidad),1.0-Vainilla (ml),</t>
   </si>
   <si>
     <t>Tartaleta Durazno</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),5.0-Harina  (kg),</t>
+    <t>5.0-Harina  (kg),5.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),5.0-Crema (litros),4.0-Harina  (kg),2.0-Limon (unidad),</t>
+    <t>4.0-Harina  (kg),2.0-Limon (unidad),5.0-Huevos (unidad),5.0-Crema (litros),</t>
   </si>
   <si>
     <t>Cupcake</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),0.2-Leche (litros),0.1-Vainilla (ml),0.3-Harina  (kg),</t>
+    <t>0.3-Harina  (kg),2.0-Huevos (unidad),0.1-Vainilla (ml),0.2-Leche (litros),</t>
   </si>
 </sst>
 </file>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -32,7 +32,7 @@
     <t>Torta</t>
   </si>
   <si>
-    <t>1.0-Huevos (unidad),3.0-Leche (litros),2.0-Harina  (kg),1.0-Vainilla (ml),</t>
+    <t>1.0-Huevos (unidad),1.0-Vainilla (ml),2.0-Harina  (kg),3.0-Leche (litros),</t>
   </si>
   <si>
     <t>1</t>
@@ -47,7 +47,7 @@
     <t>Queque</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),5.0-Harina  (kg),1.0-Vainilla (ml),</t>
+    <t>2.0-Huevos (unidad),1.0-Vainilla (ml),5.0-Harina  (kg),</t>
   </si>
   <si>
     <t>Tartaleta Durazno</t>
@@ -59,13 +59,13 @@
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),5.0-Crema (litros),4.0-Harina  (kg),2.0-Limon (unidad),</t>
+    <t>5.0-Huevos (unidad),4.0-Harina  (kg),5.0-Crema (litros),2.0-Limon (unidad),</t>
   </si>
   <si>
     <t>Cupcake</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),0.2-Leche (litros),0.3-Harina  (kg),0.1-Vainilla (ml),</t>
+    <t>2.0-Huevos (unidad),0.1-Vainilla (ml),0.3-Harina  (kg),0.2-Leche (litros),</t>
   </si>
 </sst>
 </file>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -32,7 +32,7 @@
     <t>Torta</t>
   </si>
   <si>
-    <t>2.0-Harina  (kg),1.0-Huevos (unidad),1.0-Vainilla (ml),3.0-Leche (litros),</t>
+    <t>1.0-Huevos (unidad),3.0-Leche (litros),1.0-Vainilla (ml),2.0-Harina  (kg),</t>
   </si>
   <si>
     <t>0</t>
@@ -41,31 +41,31 @@
     <t>Kuchen Manzana</t>
   </si>
   <si>
-    <t>2.0-Harina  (kg),5.0-Huevos (unidad),</t>
+    <t>5.0-Huevos (unidad),2.0-Harina  (kg),</t>
   </si>
   <si>
     <t>Queque</t>
   </si>
   <si>
-    <t>5.0-Harina  (kg),2.0-Huevos (unidad),1.0-Vainilla (ml),</t>
+    <t>2.0-Huevos (unidad),1.0-Vainilla (ml),5.0-Harina  (kg),</t>
   </si>
   <si>
     <t>Tartaleta Durazno</t>
   </si>
   <si>
-    <t>5.0-Harina  (kg),5.0-Huevos (unidad),</t>
+    <t>5.0-Huevos (unidad),5.0-Harina  (kg),</t>
   </si>
   <si>
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>4.0-Harina  (kg),2.0-Limon (unidad),5.0-Huevos (unidad),5.0-Crema (litros),</t>
+    <t>5.0-Huevos (unidad),2.0-Limon (unidad),4.0-Harina  (kg),5.0-Crema (litros),</t>
   </si>
   <si>
     <t>Cupcake</t>
   </si>
   <si>
-    <t>0.3-Harina  (kg),2.0-Huevos (unidad),0.1-Vainilla (ml),0.2-Leche (litros),</t>
+    <t>2.0-Huevos (unidad),0.2-Leche (litros),0.1-Vainilla (ml),0.3-Harina  (kg),</t>
   </si>
 </sst>
 </file>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -32,10 +32,10 @@
     <t>Torta</t>
   </si>
   <si>
-    <t>1.0-Huevos (unidad),3.0-Leche (litros),1.0-Vainilla (ml),2.0-Harina  (kg),</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>1.0-Vainilla (ml),1.0-Huevos (unidad),3.0-Leche (litros),2.0-Harina  (kg),</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Kuchen Manzana</t>
@@ -47,7 +47,7 @@
     <t>Queque</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),1.0-Vainilla (ml),5.0-Harina  (kg),</t>
+    <t>1.0-Vainilla (ml),2.0-Huevos (unidad),5.0-Harina  (kg),</t>
   </si>
   <si>
     <t>Tartaleta Durazno</t>
@@ -59,13 +59,13 @@
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),2.0-Limon (unidad),4.0-Harina  (kg),5.0-Crema (litros),</t>
+    <t>2.0-Limon (unidad),5.0-Huevos (unidad),5.0-Crema (litros),4.0-Harina  (kg),</t>
   </si>
   <si>
     <t>Cupcake</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),0.2-Leche (litros),0.1-Vainilla (ml),0.3-Harina  (kg),</t>
+    <t>0.1-Vainilla (ml),2.0-Huevos (unidad),0.2-Leche (litros),0.3-Harina  (kg),</t>
   </si>
 </sst>
 </file>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -32,7 +32,7 @@
     <t>Torta</t>
   </si>
   <si>
-    <t>1.0-Vainilla (ml),1.0-Huevos (unidad),3.0-Leche (litros),2.0-Harina  (kg),</t>
+    <t>2.0-Harina  (kg),1.0-Huevos (unidad),1.0-Vainilla (ml),3.0-Leche (litros),</t>
   </si>
   <si>
     <t>1</t>
@@ -41,31 +41,31 @@
     <t>Kuchen Manzana</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),2.0-Harina  (kg),</t>
+    <t>2.0-Harina  (kg),5.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Queque</t>
   </si>
   <si>
-    <t>1.0-Vainilla (ml),2.0-Huevos (unidad),5.0-Harina  (kg),</t>
+    <t>5.0-Harina  (kg),2.0-Huevos (unidad),1.0-Vainilla (ml),</t>
   </si>
   <si>
     <t>Tartaleta Durazno</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),5.0-Harina  (kg),</t>
+    <t>5.0-Harina  (kg),5.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>2.0-Limon (unidad),5.0-Huevos (unidad),5.0-Crema (litros),4.0-Harina  (kg),</t>
+    <t>2.0-Limon (unidad),5.0-Crema (litros),4.0-Harina  (kg),5.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Cupcake</t>
   </si>
   <si>
-    <t>0.1-Vainilla (ml),2.0-Huevos (unidad),0.2-Leche (litros),0.3-Harina  (kg),</t>
+    <t>0.3-Harina  (kg),2.0-Huevos (unidad),0.1-Vainilla (ml),0.2-Leche (litros),</t>
   </si>
 </sst>
 </file>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -32,10 +32,10 @@
     <t>Torta</t>
   </si>
   <si>
-    <t>1.0-Huevos (unidad),3.0-Leche (litros),1.0-Vainilla (ml),2.0-Harina  (kg),</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>1.0-Huevos (unidad),3.0-Leche (litros),2.0-Harina  (kg),1.0-Vainilla (ml),</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Kuchen Manzana</t>
@@ -47,7 +47,7 @@
     <t>Queque</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),1.0-Vainilla (ml),5.0-Harina  (kg),</t>
+    <t>2.0-Huevos (unidad),5.0-Harina  (kg),1.0-Vainilla (ml),</t>
   </si>
   <si>
     <t>Tartaleta Durazno</t>
@@ -59,13 +59,13 @@
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),2.0-Limon (unidad),4.0-Harina  (kg),5.0-Crema (litros),</t>
+    <t>5.0-Crema (litros),5.0-Huevos (unidad),4.0-Harina  (kg),2.0-Limon (unidad),</t>
   </si>
   <si>
     <t>Cupcake</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),0.2-Leche (litros),0.1-Vainilla (ml),0.3-Harina  (kg),</t>
+    <t>2.0-Huevos (unidad),0.2-Leche (litros),0.3-Harina  (kg),0.1-Vainilla (ml),</t>
   </si>
 </sst>
 </file>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -32,7 +32,7 @@
     <t>Torta</t>
   </si>
   <si>
-    <t>1.0-Huevos (unidad),3.0-Leche (litros),2.0-Harina  (kg),1.0-Vainilla (ml),</t>
+    <t>1.0-Vainilla (ml),1.0-Huevos (unidad),3.0-Leche (litros),2.0-Harina  (kg),</t>
   </si>
   <si>
     <t>1</t>
@@ -47,7 +47,7 @@
     <t>Queque</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),5.0-Harina  (kg),1.0-Vainilla (ml),</t>
+    <t>1.0-Vainilla (ml),2.0-Huevos (unidad),5.0-Harina  (kg),</t>
   </si>
   <si>
     <t>Tartaleta Durazno</t>
@@ -59,13 +59,13 @@
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>5.0-Crema (litros),5.0-Huevos (unidad),4.0-Harina  (kg),2.0-Limon (unidad),</t>
+    <t>2.0-Limon (unidad),5.0-Huevos (unidad),5.0-Crema (litros),4.0-Harina  (kg),</t>
   </si>
   <si>
     <t>Cupcake</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),0.2-Leche (litros),0.3-Harina  (kg),0.1-Vainilla (ml),</t>
+    <t>0.1-Vainilla (ml),2.0-Huevos (unidad),0.2-Leche (litros),0.3-Harina  (kg),</t>
   </si>
 </sst>
 </file>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -59,7 +59,7 @@
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>2.0-Limon (unidad),5.0-Huevos (unidad),5.0-Crema (litros),4.0-Harina  (kg),</t>
+    <t>5.0-Crema (litros),2.0-Limon (unidad),5.0-Huevos (unidad),4.0-Harina  (kg),</t>
   </si>
   <si>
     <t>Cupcake</t>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -32,7 +32,7 @@
     <t>Torta</t>
   </si>
   <si>
-    <t>2.0-Harina  (kg),1.0-Huevos (unidad),1.0-Vainilla (ml),3.0-Leche (litros),</t>
+    <t>1.0-Vainilla (ml),2.0-Harina  (kg),1.0-Huevos (unidad),3.0-Leche (litros),</t>
   </si>
   <si>
     <t>1</t>
@@ -47,7 +47,7 @@
     <t>Queque</t>
   </si>
   <si>
-    <t>5.0-Harina  (kg),2.0-Huevos (unidad),1.0-Vainilla (ml),</t>
+    <t>1.0-Vainilla (ml),5.0-Harina  (kg),2.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Tartaleta Durazno</t>
@@ -65,7 +65,7 @@
     <t>Cupcake</t>
   </si>
   <si>
-    <t>0.3-Harina  (kg),2.0-Huevos (unidad),0.1-Vainilla (ml),0.2-Leche (litros),</t>
+    <t>0.1-Vainilla (ml),0.3-Harina  (kg),2.0-Huevos (unidad),0.2-Leche (litros),</t>
   </si>
 </sst>
 </file>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -32,7 +32,7 @@
     <t>Torta</t>
   </si>
   <si>
-    <t>1.0-Vainilla (ml),2.0-Harina  (kg),1.0-Huevos (unidad),3.0-Leche (litros),</t>
+    <t>1.0-Huevos (unidad),2.0-Harina  (kg),3.0-Leche (litros),1.0-Vainilla (ml),</t>
   </si>
   <si>
     <t>1</t>
@@ -41,31 +41,31 @@
     <t>Kuchen Manzana</t>
   </si>
   <si>
-    <t>2.0-Harina  (kg),5.0-Huevos (unidad),</t>
+    <t>5.0-Huevos (unidad),2.0-Harina  (kg),</t>
   </si>
   <si>
     <t>Queque</t>
   </si>
   <si>
-    <t>1.0-Vainilla (ml),5.0-Harina  (kg),2.0-Huevos (unidad),</t>
+    <t>2.0-Huevos (unidad),5.0-Harina  (kg),1.0-Vainilla (ml),</t>
   </si>
   <si>
     <t>Tartaleta Durazno</t>
   </si>
   <si>
-    <t>5.0-Harina  (kg),5.0-Huevos (unidad),</t>
+    <t>5.0-Huevos (unidad),5.0-Harina  (kg),</t>
   </si>
   <si>
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>2.0-Limon (unidad),5.0-Crema (litros),4.0-Harina  (kg),5.0-Huevos (unidad),</t>
+    <t>5.0-Huevos (unidad),2.0-Limon (unidad),4.0-Harina  (kg),5.0-Crema (litros),</t>
   </si>
   <si>
     <t>Cupcake</t>
   </si>
   <si>
-    <t>0.1-Vainilla (ml),0.3-Harina  (kg),2.0-Huevos (unidad),0.2-Leche (litros),</t>
+    <t>2.0-Huevos (unidad),0.3-Harina  (kg),0.2-Leche (litros),0.1-Vainilla (ml),</t>
   </si>
 </sst>
 </file>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -32,7 +32,7 @@
     <t>Torta</t>
   </si>
   <si>
-    <t>1.0-Vainilla (ml),1.0-Huevos (unidad),3.0-Leche (litros),2.0-Harina  (kg),</t>
+    <t>3.0-Leche (litros),2.0-Harina  (kg),1.0-Vainilla (ml),1.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>1</t>
@@ -41,31 +41,31 @@
     <t>Kuchen Manzana</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),2.0-Harina  (kg),</t>
+    <t>2.0-Harina  (kg),5.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Queque</t>
   </si>
   <si>
-    <t>1.0-Vainilla (ml),2.0-Huevos (unidad),5.0-Harina  (kg),</t>
+    <t>5.0-Harina  (kg),1.0-Vainilla (ml),2.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Tartaleta Durazno</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),5.0-Harina  (kg),</t>
+    <t>5.0-Harina  (kg),5.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>2.0-Limon (unidad),5.0-Huevos (unidad),5.0-Crema (litros),4.0-Harina  (kg),</t>
+    <t>2.0-Limon (unidad),4.0-Harina  (kg),5.0-Crema (litros),5.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Cupcake</t>
   </si>
   <si>
-    <t>0.1-Vainilla (ml),2.0-Huevos (unidad),0.2-Leche (litros),0.3-Harina  (kg),</t>
+    <t>0.2-Leche (litros),0.3-Harina  (kg),0.1-Vainilla (ml),2.0-Huevos (unidad),</t>
   </si>
 </sst>
 </file>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -32,7 +32,7 @@
     <t>Torta</t>
   </si>
   <si>
-    <t>1.0-Huevos (unidad),2.0-Harina  (kg),3.0-Leche (litros),1.0-Vainilla (ml),</t>
+    <t>3.0-Leche (litros),2.0-Harina  (kg),1.0-Vainilla (ml),1.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>1</t>
@@ -41,31 +41,31 @@
     <t>Kuchen Manzana</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),2.0-Harina  (kg),</t>
+    <t>2.0-Harina  (kg),5.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Queque</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),5.0-Harina  (kg),1.0-Vainilla (ml),</t>
+    <t>5.0-Harina  (kg),1.0-Vainilla (ml),2.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Tartaleta Durazno</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),5.0-Harina  (kg),</t>
+    <t>5.0-Harina  (kg),5.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>5.0-Huevos (unidad),2.0-Limon (unidad),4.0-Harina  (kg),5.0-Crema (litros),</t>
+    <t>2.0-Limon (unidad),5.0-Crema (litros),4.0-Harina  (kg),5.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Cupcake</t>
   </si>
   <si>
-    <t>2.0-Huevos (unidad),0.3-Harina  (kg),0.2-Leche (litros),0.1-Vainilla (ml),</t>
+    <t>0.2-Leche (litros),0.3-Harina  (kg),0.1-Vainilla (ml),2.0-Huevos (unidad),</t>
   </si>
 </sst>
 </file>

--- a/Nana&Rene/ProductosTest.xlsx
+++ b/Nana&Rene/ProductosTest.xlsx
@@ -59,7 +59,7 @@
     <t>Pie de Limon</t>
   </si>
   <si>
-    <t>2.0-Limon (unidad),4.0-Harina  (kg),5.0-Crema (litros),5.0-Huevos (unidad),</t>
+    <t>4.0-Harina  (kg),2.0-Limon (unidad),5.0-Crema (litros),5.0-Huevos (unidad),</t>
   </si>
   <si>
     <t>Cupcake</t>
